--- a/raw/1930election.xlsx
+++ b/raw/1930election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4267B57A-3AEE-934D-84F2-8DCD681730F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64D2E4-8C4D-7549-9C0B-5305CDF04E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16460" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="2131">
   <si>
     <t>State</t>
   </si>
@@ -6789,6 +6789,10 @@
   </si>
   <si>
     <t>Llewellyn A. Banks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7177,8 +7181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D363" sqref="D363"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7605,7 +7609,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -7625,7 +7629,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C20" t="s">
         <v>1759</v>
@@ -7648,7 +7652,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C21" t="s">
         <v>1759</v>
@@ -7671,7 +7675,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C22" t="s">
         <v>1759</v>
@@ -7694,7 +7698,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C23" t="s">
         <v>1759</v>
@@ -7717,7 +7721,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C24" t="s">
         <v>1759</v>
@@ -7740,7 +7744,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C25" t="s">
         <v>1759</v>
@@ -7763,7 +7767,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>2130</v>
       </c>
       <c r="C26" t="s">
         <v>1759</v>
